--- a/data/trans_dic/P55_4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55_4-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros)</t>
+          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros) (tasa de respuesta: 97,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45,62%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,82%</t>
+          <t>50,51%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29,38%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46,63%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>49,45%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,42; 65,7</t>
+          <t>17,44; 63,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,83; 57,37</t>
+          <t>51,83; 91,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,37; 58,09</t>
+          <t>35,71; 65,49</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17,31; 44,8</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>29,37; 59,17</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34,76; 72,49</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>76,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65,47%</t>
+          <t>76,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,13%</t>
+          <t>69,58%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>56,75%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>73,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>66,89%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,67; 80,7</t>
+          <t>63,93; 84,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,6; 71,53</t>
+          <t>68,97; 83,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,2; 74,68</t>
+          <t>61,87; 75,3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>48,99; 64,34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65,23; 78,06</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60,92; 71,93</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>86,77%</t>
+          <t>86,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>85,21%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>86,23%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>83,25%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>86,31%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>85,1%</t>
         </is>
       </c>
     </row>
@@ -679,24 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,62; 91,24</t>
+          <t>78,75; 92,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,78; 90,12</t>
+          <t>80,85; 93,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,74; 89,07</t>
+          <t>79,84; 91,29</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>76,75; 88,4</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>81,26; 90,13</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>79,82; 88,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>74,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>71,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -729,28 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,78; 79,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,3; 72,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66,63; 74,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>75,04%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>79,59%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>73,47%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>61,6%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>74,24%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>70,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>65,68; 81,65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>74,34; 84,58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>68,04; 78,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>55,92; 67,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>68,86; 77,9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66,12; 74,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros) (tasa de respuesta: 97,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45632</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>121524</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>58964</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>56436</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>104596</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>177960</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18762; 67851</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>86949; 153209</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41683; 76448</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33251; 86058</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>65883; 132739</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>125081; 260859</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>300051</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>382958</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>250978</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>274621</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>551028</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>657579</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>251963; 334689</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>344324; 417609</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>223165; 271594</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>237053; 311306</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>492407; 589249</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>598899; 707127</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>234272</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>302563</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>275777</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>328261</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>510049</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>630825</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>213490; 249505</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>280486; 323463</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>255352; 291964</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>302666; 348573</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>480183; 532603</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>591701; 659003</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>533.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>579954</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>807045</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>585718</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>659318</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1165672</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1466363</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>507567; 631011</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>753821; 857604</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>542421; 621876</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>598488; 721060</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1081098; 1223156</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1378041; 1551459</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>